--- a/supp_data/tcga_negative_sig_sig_survivals_nonepi.xlsx
+++ b/supp_data/tcga_negative_sig_sig_survivals_nonepi.xlsx
@@ -7,18 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Uterus_AdenoCa__APOBEC+MMR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Skin_Melanoma__Ageing+Technical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ColoRect_AdenoCa__MMR+SBS40" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stomach_AdenoCa__MMR+SBS17" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Uterus_AdenoCa__MMR+APOBEC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Uterus_AdenoCa__APOBEC+MMR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ColoRect_AdenoCa__SBS40+MMR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stomach_AdenoCa__SBS17+MMR" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ColoRect_AdenoCa__MMR+SBS40" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Stomach_AdenoCa__MMR+SBS17" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
-  <si>
-    <t xml:space="preserve">Breast_cancer__Ageing+APOBEC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
+  <si>
+    <t xml:space="preserve">Breast_cancer__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">Model 1</t>
@@ -51,13 +53,13 @@
     <t xml:space="preserve">log(total_muts + 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
     <t xml:space="preserve">statusAPOBEC</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+APOBEC</t>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
@@ -84,7 +86,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cervix_CA__Ageing+APOBEC</t>
+    <t xml:space="preserve">Cervix_CA__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">Model 2</t>
@@ -102,7 +104,7 @@
     <t xml:space="preserve">Best model is Model 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Eso_AdenoCa__Ageing+APOBEC</t>
+    <t xml:space="preserve">Eso_AdenoCa__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">-202.1655</t>
@@ -111,7 +113,7 @@
     <t xml:space="preserve">-200.5412</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+APOBEC</t>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">-257.7106</t>
@@ -123,835 +125,1147 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.996094445439471</t>
   </si>
   <si>
+    <t xml:space="preserve">Cervix_CA__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-174.5163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-543.3433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-539.2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-541.1295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Both models fit equally well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.853,   p = 0.0757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical likelihood ratio test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.853,   p = 0.0497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-539.2534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.101,   p = 0.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.101,   p = 0.751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-541.3599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.213,   p = 0.0613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.213,   p = 0.0401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996955953280888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.64246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.57424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.874,   p = 0.0767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.874,   p = 0.0493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.64848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.60089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.915,   p = 0.0757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.915,   p = 0.0481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.997673375778102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__MMR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.5550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-255.4164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.723,   p = 0.00152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.723,   p = 0.00182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-252.3738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.638,   p = 0.0796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.638,   p = 0.0565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-256.1842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.258,   p = 0.00663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.258,   p = 0.00359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.224329424954757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__MMR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.87591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.01155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.07014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.118,   p = 0.747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.118,   p = 0.732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.00338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.008,   p = 0.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.008,   p = 0.1567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.008,   two-sided p = 0.3134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.01190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.886,   p = 0.0747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.886,   p = 0.0488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0956022231634531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__PolE+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.98820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCa__SBS17+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199.9411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199.9564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.031,   p = 0.849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.031,   p = 0.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200.8521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.644,   p = 0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.644,   p = 0.2599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.644,   two-sided p = 0.5198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200.8631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.813,   p = 0.155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.813,   p = 0.178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.729951036475785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__Tobacco+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-537.2818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-539.4080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.252,   p = 0.0632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.252,   p = 0.0392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-537.3521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.141,   p = 0.705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.141,   p = 0.708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-539.6937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.683,   p = 0.0482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.683,   p = 0.0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.127861757413028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__Tobacco+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-349.0947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-343.0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.3976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.759,   p = 0.0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.759,   p = 0.00933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-343.0365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.036,   p = 0.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.036,   p = 0.848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.6396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.206,   p = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.206,   p = 0.00726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.365132380789188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__Tobacco+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-480.1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-475.7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.3198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.214,   p = 0.0704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.214,   p = 0.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.2810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.136,   p = 0.0828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.136,   p = 0.0766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.3028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.180,   p = 0.0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.180,   p = 0.0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.883988690424715</t>
+  </si>
+  <si>
     <t xml:space="preserve">Breast_cancer__APOBEC+HR</t>
   </si>
   <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.64246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.57424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variance test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Both models fit equally well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.874,   p = 0.0767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classical likelihood ratio test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.874,   p = 0.0493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.64848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.60089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.915,   p = 0.0757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.915,   p = 0.0481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.997673375778102</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stomach_AdenoCa__APOBEC+MMR</t>
   </si>
   <si>
-    <t xml:space="preserve">statusMMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.5550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-255.4164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.723,   p = 0.00152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.723,   p = 0.00182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-252.3738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.638,   p = 0.0796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.638,   p = 0.0565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-256.1842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.258,   p = 0.00663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.258,   p = 0.00359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.224329424954757</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uterus_AdenoCa__APOBEC+MMR</t>
   </si>
   <si>
-    <t xml:space="preserve">-80.87591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.01155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.07014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.118,   p = 0.747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.118,   p = 0.732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.00338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.008,   p = 0.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.008,   p = 0.1567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.008,   two-sided p = 0.3134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.01190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.886,   p = 0.0747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.886,   p = 0.0488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0956022231634531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix_CA__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-174.5163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-543.3433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-539.2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-541.1295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.853,   p = 0.0757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.853,   p = 0.0497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-539.2534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.101,   p = 0.743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.101,   p = 0.751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-541.3599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.213,   p = 0.0613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.213,   p = 0.0401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996955953280888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251.1590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-255.9125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.507,   p = 0.00207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.507,   p = 0.00205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-253.9847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.651,   p = 0.0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.651,   p = 0.0174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.2609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.204,   p = 0.00275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.204,   p = 0.00224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.667558163023703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+Technical</t>
+    <t xml:space="preserve">ColoRect_AdenoCa__SBS40+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-206.2627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-212.4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.397,   p = 0.000683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.397,   p = 0.00043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-207.6735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.822,   p = 0.0314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.822,   p = 0.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-213.6916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 14.858,   p = 0.000298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 14.858,   p = 0.000594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0621634893284628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__SBS40+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-244.7272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.3610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.268,   p = 0.000894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.268,   p = 0.000789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-248.1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.925,   p = 0.0195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.925,   p = 0.0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-252.3187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.183,   p = 0.00152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.183,   p = 0.000505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.625035291039663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS40+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.09279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.14516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.105,   p = 0.758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.105,   p = 0.746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.26567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.083,   p = 0.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.083,   p = 0.1394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.083,   two-sided p = 0.2788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.26920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.250,   p = 0.0559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.250,   p = 0.0393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.104436099063503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__SBS17+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-248.8352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-253.7171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.764,   p = 0.00109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.764,   p = 0.00178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.7655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.860,   p = 0.0752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.860,   p = 0.0494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254.7891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.908,   p = 0.00547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.908,   p = 0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0358159495731045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS28+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.07231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.76999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.393,   p = 0.0748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.393,   p = 0.0654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999603104091862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+Technical</t>
   </si>
   <si>
     <t xml:space="preserve">statusTechnical</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+Technical</t>
+    <t xml:space="preserve">statusCL SBS5+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.5914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.1888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.195,   p = 0.00384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.195,   p = 0.00243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.8423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.502,   p = 0.467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.502,   p = 0.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-347.4142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.144,   p = 0.00131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.144,   p = 0.000843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.170893118825288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__Tobacco+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-342.7795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.2288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.898,   p = 0.0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.898,   p = 0.00863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-342.7961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.033,   p = 0.886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.033,   p = 0.856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.4266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.261,   p = 0.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.261,   p = 0.00705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.270771403937891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__Tobacco+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-475.2550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-476.6566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.803,   p = 0.0856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.803,   p = 0.0941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.1513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.793,   p = 0.0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.793,   p = 0.0515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.534,   p = 0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.534,   p = 0.0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.245769891143674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical+UV</t>
   </si>
   <si>
     <t xml:space="preserve">-529.2339</t>
   </si>
   <si>
-    <t xml:space="preserve">-516.4026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-524.9349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 7.45e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.065,   p = 4.47e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.065,   p = 3.61e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.4027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.99</t>
+    <t xml:space="preserve">-516.9610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS40+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.01304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-245.5094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996607749117562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.9423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345.4664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.048,   p = 0.00403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.048,   p = 0.00263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.9663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.048,   p = 0.837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.048,   p = 0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.4393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.946,   p = 0.00123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.946,   p = 0.000938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.922972820591725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCa__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.83828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.66028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.74154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.163,   p = 0.614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.163,   p = 0.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.89555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.216,   p = 0.586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.216,   p = 0.4143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.216,   two-sided p = 0.8287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66.95086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.419,   p = 0.592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.419,   p = 0.518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998482020132602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarcoma__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.52319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.73131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-245.3687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.49804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.50148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.007,   p = 0.942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.007,   p = 0.934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.27772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.947,   p = 0.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.947,   p = 0.1718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.947,   two-sided p = 0.3436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.28431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.569,   p = 0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.569,   p = 0.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998387104056107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__MMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__MMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__MMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__PolE+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__Tobacco+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345.3043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.087,   p = 0.00687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.087,   p = 0.00446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.981</t>
   </si>
   <si>
     <t xml:space="preserve">    LR = 0.000,   p = 0.977</t>
   </si>
   <si>
-    <t xml:space="preserve">    LR = 0.000,   p = 0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-525.1293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 7.14e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.453,   p = 4.51e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.453,   p = 2.94e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0925866461234749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-349.0947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.5914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.1888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.195,   p = 0.00384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.195,   p = 0.00243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.8423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.502,   p = 0.467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.502,   p = 0.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-347.4142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.144,   p = 0.00131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.144,   p = 0.000843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.170893118825288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-515.2313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-523.1671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.872,   p = 8.68e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.872,   p = 6.78e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-515.3072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.152,   p = 0.716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.152,   p = 0.697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-523.1843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.754,   p = 0.000112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.754,   p = 7.21e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.995170588174623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.98820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-245.5094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996607749117562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__MMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-206.2627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212.4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.397,   p = 0.000683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.397,   p = 0.00043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-207.6735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.822,   p = 0.0314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.822,   p = 0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-213.6916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.858,   p = 0.000298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.858,   p = 0.000594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0621634893284628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__MMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-244.7272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.3610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.268,   p = 0.000894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.268,   p = 0.000789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-248.1895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.925,   p = 0.0195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.925,   p = 0.0085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-252.3187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.183,   p = 0.00152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.183,   p = 0.000505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.625035291039663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__MMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.09279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.14516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.105,   p = 0.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.105,   p = 0.746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.26567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.083,   p = 0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.083,   p = 0.1394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.083,   two-sided p = 0.2788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.26920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.250,   p = 0.0559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.250,   p = 0.0393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.104436099063503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__SBS5+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.9423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345.4664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.048,   p = 0.00403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.048,   p = 0.00263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.9663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.048,   p = 0.837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.048,   p = 0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.4393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.946,   p = 0.00123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.946,   p = 0.000938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.922972820591727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCa__SBS5+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.83828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66.66028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66.74154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.163,   p = 0.614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.163,   p = 0.687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66.89555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.216,   p = 0.586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.216,   p = 0.4143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.216,   two-sided p = 0.8287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66.95086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.419,   p = 0.592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.419,   p = 0.518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.99848202035619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarcoma__SBS5+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.52319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.73131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__SBS5+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-245.3687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__SBS5+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.49804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.50148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.007,   p = 0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.007,   p = 0.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.27772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.947,   p = 0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.947,   p = 0.1718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.947,   two-sided p = 0.3436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.28431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.569,   p = 0.076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.569,   p = 0.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998387104102928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__PolE+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.01304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS17</t>
+    <t xml:space="preserve">    LR = 0.000,   p = 0.983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345.4408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.359,   p = 0.00614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.359,   p = 0.00384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.995774745605419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCa__APOBEC+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS1+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS17</t>
   </si>
   <si>
     <t xml:space="preserve">-254.3093</t>
@@ -972,112 +1286,22 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.995773227423008</t>
   </si>
   <si>
-    <t xml:space="preserve">Eso_AdenoCa__APOBEC+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-199.9411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-199.9564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.031,   p = 0.849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.031,   p = 0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.8521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.644,   p = 0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.644,   p = 0.2599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.644,   two-sided p = 0.5198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.8631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.813,   p = 0.155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.813,   p = 0.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.729951036475785</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stomach_AdenoCa__MMR+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">statusMMR+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-248.8352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-253.7171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.764,   p = 0.00109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.764,   p = 0.00178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.7655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.860,   p = 0.0752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.860,   p = 0.0494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.7891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.908,   p = 0.00547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.908,   p = 0.0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0358159495731045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__Ageing+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+Tobacco</t>
+    <t xml:space="preserve">Head_SCC__APOBEC+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__APOBEC+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__APOBEC+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS1+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-538.7012</t>
@@ -1122,292 +1346,22 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.427710588423933</t>
   </si>
   <si>
-    <t xml:space="preserve">Head_SCC__APOBEC+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-537.2818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-539.4080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.252,   p = 0.0632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.252,   p = 0.0392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-537.3521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.141,   p = 0.705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.141,   p = 0.708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-539.6937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.683,   p = 0.0482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.683,   p = 0.0305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.127861757413028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__APOBEC+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-343.0182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.3976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.759,   p = 0.0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.759,   p = 0.00933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-343.0365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.036,   p = 0.878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.036,   p = 0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.6396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.206,   p = 0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.206,   p = 0.00726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.365132380789188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__APOBEC+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-480.1646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-475.7129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.3198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.214,   p = 0.0704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.214,   p = 0.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.2810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.136,   p = 0.0828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.136,   p = 0.0766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.3028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.180,   p = 0.0303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.180,   p = 0.0276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.883988690424715</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__Technical+Tobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">statusTechnical+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-342.7795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.2288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.898,   p = 0.0137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.898,   p = 0.00863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-342.7961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.033,   p = 0.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.033,   p = 0.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.4266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.261,   p = 0.0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.261,   p = 0.00705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.270771403937891</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_SCC__Technical+Tobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">-475.2550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-476.6566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.803,   p = 0.0856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.803,   p = 0.0941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.1513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.793,   p = 0.0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.793,   p = 0.0515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.0219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.534,   p = 0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.534,   p = 0.0231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.245769891143674</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__SBS40+Tobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS40+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345.3043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.087,   p = 0.00687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.087,   p = 0.00446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.000,   p = 0.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345.4408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.359,   p = 0.00614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.359,   p = 0.00384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.995774745605419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS38</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">statusSBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+SBS38</t>
+    <t xml:space="preserve">statusCL SBS1+SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">-519.2551</t>
@@ -1452,10 +1406,10 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.238342463319426</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+SBS5</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">-516.1663</t>
@@ -1500,91 +1454,61 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.980780408242828</t>
   </si>
   <si>
+    <t xml:space="preserve">Skin_Melanoma__UV+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-518.4565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-526.0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.107,   p = 0.000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.107,   p = 0.000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-518.4595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.006,   p = 0.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.006,   p = 0.938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-526.1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.334,   p = 0.000184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.334,   p = 9.01e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.769773371511417</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skin_Melanoma__Technical+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTechnical+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.9610</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__SBS38+UV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS38+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-518.4565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-526.0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.107,   p = 0.000176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.107,   p = 0.000102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-518.4595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.006,   p = 0.955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.006,   p = 0.938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-526.1265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.334,   p = 0.000184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.334,   p = 9.01e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.769773371511417</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uterus_AdenoCa__MMR+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.07231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.76999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.393,   p = 0.0748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.393,   p = 0.0654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999603104091862</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1855,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -2006,7 +1930,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>0.387893988687189</v>
@@ -2026,7 +1950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B9" t="n">
         <v>0.447862254222504</v>
@@ -2046,7 +1970,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B10" t="n">
         <v>2.06328184669841</v>
@@ -2079,10 +2003,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -2137,7 +2061,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
         <v>0.35547377574039</v>
@@ -2157,7 +2081,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B41" t="n">
         <v>0.449445446461741</v>
@@ -2177,7 +2101,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B42" t="n">
         <v>1.88889251293963</v>
@@ -2210,15 +2134,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -2228,72 +2152,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -2338,7 +2262,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
         <v>0.933885649446392</v>
@@ -2358,7 +2282,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B74" t="n">
         <v>0.325587580096593</v>
@@ -2378,7 +2302,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B75" t="n">
         <v>2.35420817904319</v>
@@ -2411,15 +2335,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
@@ -2429,72 +2353,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104">
@@ -2519,7 +2443,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105" t="n">
         <v>0.91218180784919</v>
@@ -2539,7 +2463,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B106" t="n">
         <v>0.32140386859398</v>
@@ -2559,7 +2483,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B107" t="n">
         <v>2.28545697784246</v>
@@ -2592,15 +2516,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
@@ -2610,62 +2534,62 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
@@ -2675,7 +2599,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2618,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -2732,19 +2656,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0271087997628436</v>
+        <v>-0.00925656428068377</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02747958621768</v>
+        <v>0.990786145825916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00669206077370031</v>
+        <v>0.0271095772356688</v>
       </c>
       <c r="E6" t="n">
-        <v>4.05088965560217</v>
+        <v>-0.341449968039511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000510232661264473</v>
+        <v>0.732764863721224</v>
       </c>
     </row>
     <row r="7">
@@ -2752,19 +2676,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00146146274950983</v>
+        <v>-0.356592106173641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998539604667114</v>
+        <v>0.700057988837363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114819611985533</v>
+        <v>0.193624562415651</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0127283372956701</v>
+        <v>-1.84166771883079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.989844530403404</v>
+        <v>0.0655237688645415</v>
       </c>
     </row>
     <row r="8">
@@ -2772,59 +2696,59 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452147919560928</v>
+        <v>0.387893988687189</v>
       </c>
       <c r="C8" t="n">
-        <v>1.57168441425259</v>
+        <v>1.47387352873816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.473766972743828</v>
+        <v>0.757717224549197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9543677494915</v>
+        <v>0.511924470131936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.339897525067474</v>
+        <v>0.608703871535916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B9" t="n">
-        <v>1.06534736507763</v>
+        <v>0.447862254222504</v>
       </c>
       <c r="C9" t="n">
-        <v>2.90184680925003</v>
+        <v>1.56496311374526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.478920447068303</v>
+        <v>0.613919541384372</v>
       </c>
       <c r="E9" t="n">
-        <v>2.22447667790992</v>
+        <v>0.729512947596661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0261163899348987</v>
+        <v>0.465687950651149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B10" t="n">
-        <v>0.874269464821821</v>
+        <v>2.06328184669841</v>
       </c>
       <c r="C10" t="n">
-        <v>2.3971234711388</v>
+        <v>7.87176137927497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.521379277422367</v>
+        <v>1.24693215942274</v>
       </c>
       <c r="E10" t="n">
-        <v>1.67683968788345</v>
+        <v>1.65468652893963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0935738345725461</v>
+        <v>0.0979881010314471</v>
       </c>
     </row>
     <row r="12">
@@ -2842,10 +2766,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -2883,19 +2807,19 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0743882359289045</v>
+        <v>-0.351037862070476</v>
       </c>
       <c r="C39" t="n">
-        <v>1.07722494174911</v>
+        <v>0.703957100077705</v>
       </c>
       <c r="D39" t="n">
-        <v>0.119084191635391</v>
+        <v>0.192870937505925</v>
       </c>
       <c r="E39" t="n">
-        <v>0.624669277318224</v>
+        <v>-1.82006613650484</v>
       </c>
       <c r="F39" t="n">
-        <v>0.532188141079525</v>
+        <v>0.0687489337979414</v>
       </c>
     </row>
     <row r="40">
@@ -2903,59 +2827,59 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0.374816178942769</v>
+        <v>0.35547377574039</v>
       </c>
       <c r="C40" t="n">
-        <v>1.45472398113881</v>
+        <v>1.42685650416489</v>
       </c>
       <c r="D40" t="n">
-        <v>0.473788751130932</v>
+        <v>0.748152848991933</v>
       </c>
       <c r="E40" t="n">
-        <v>0.791104005842444</v>
+        <v>0.475135229678479</v>
       </c>
       <c r="F40" t="n">
-        <v>0.428883301782297</v>
+        <v>0.634690589430025</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B41" t="n">
-        <v>0.832431300894553</v>
+        <v>0.449445446461741</v>
       </c>
       <c r="C41" t="n">
-        <v>2.29890127182591</v>
+        <v>1.56744271352527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.47629875930675</v>
+        <v>0.614789403036961</v>
       </c>
       <c r="E41" t="n">
-        <v>1.74770831254348</v>
+        <v>0.731055942476484</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0805145486896075</v>
+        <v>0.464744983497977</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B42" t="n">
-        <v>0.819239381753622</v>
+        <v>1.88889251293963</v>
       </c>
       <c r="C42" t="n">
-        <v>2.26877351054871</v>
+        <v>6.61204187380199</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521114436021927</v>
+        <v>1.13340905390294</v>
       </c>
       <c r="E42" t="n">
-        <v>1.57209112840457</v>
+        <v>1.66655851780533</v>
       </c>
       <c r="F42" t="n">
-        <v>0.115929418665099</v>
+        <v>0.0956022231634531</v>
       </c>
     </row>
     <row r="45">
@@ -2973,15 +2897,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -2991,72 +2915,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -3084,19 +3008,19 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0270984825961916</v>
+        <v>-0.0032745667109545</v>
       </c>
       <c r="C72" t="n">
-        <v>1.02746898559424</v>
+        <v>0.996730788835325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00664330068710429</v>
+        <v>0.0250841812722973</v>
       </c>
       <c r="E72" t="n">
-        <v>4.07906910623421</v>
+        <v>-0.130543097078114</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000045216395423284</v>
+        <v>0.896136759307598</v>
       </c>
     </row>
     <row r="73">
@@ -3104,59 +3028,59 @@
         <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>0.452804220168333</v>
+        <v>0.933885649446392</v>
       </c>
       <c r="C73" t="n">
-        <v>1.57271625024857</v>
+        <v>2.54437654996066</v>
       </c>
       <c r="D73" t="n">
-        <v>0.470950592572019</v>
+        <v>0.729998804567436</v>
       </c>
       <c r="E73" t="n">
-        <v>0.961468628153576</v>
+        <v>1.27929750515108</v>
       </c>
       <c r="F73" t="n">
-        <v>0.336316592079502</v>
+        <v>0.200792310828893</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B74" t="n">
-        <v>1.06518635219524</v>
+        <v>0.325587580096593</v>
       </c>
       <c r="C74" t="n">
-        <v>2.90137961214441</v>
+        <v>1.38484411380675</v>
       </c>
       <c r="D74" t="n">
-        <v>0.478759001987139</v>
+        <v>0.604474782989854</v>
       </c>
       <c r="E74" t="n">
-        <v>2.22489049349271</v>
+        <v>0.538628887852312</v>
       </c>
       <c r="F74" t="n">
-        <v>0.026088590364434</v>
+        <v>0.59014295057205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>0.874737554940253</v>
+        <v>2.35420817904319</v>
       </c>
       <c r="C75" t="n">
-        <v>2.39824580360418</v>
+        <v>10.5297878531457</v>
       </c>
       <c r="D75" t="n">
-        <v>0.52008639057626</v>
+        <v>1.24434535159438</v>
       </c>
       <c r="E75" t="n">
-        <v>1.68190818062175</v>
+        <v>1.89192508014495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0925866461234749</v>
+        <v>0.0585009636336126</v>
       </c>
     </row>
     <row r="78">
@@ -3174,15 +3098,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
@@ -3192,72 +3116,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104">
@@ -3285,59 +3209,59 @@
         <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>0.339426536792032</v>
+        <v>0.91218180784919</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4041421357827</v>
+        <v>2.48974876513305</v>
       </c>
       <c r="D105" t="n">
-        <v>0.470482641180579</v>
+        <v>0.71010124406554</v>
       </c>
       <c r="E105" t="n">
-        <v>0.721443273529309</v>
+        <v>1.28457993204839</v>
       </c>
       <c r="F105" t="n">
-        <v>0.470636830268015</v>
+        <v>0.198939115066321</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B106" t="n">
-        <v>0.845625280213636</v>
+        <v>0.32140386859398</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3294339082213</v>
+        <v>1.37906242844355</v>
       </c>
       <c r="D106" t="n">
-        <v>0.475946712935867</v>
+        <v>0.603439027648332</v>
       </c>
       <c r="E106" t="n">
-        <v>1.77672259778288</v>
+        <v>0.532620287830116</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0756138923651335</v>
+        <v>0.594296455360183</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B107" t="n">
-        <v>0.801101782211894</v>
+        <v>2.28545697784246</v>
       </c>
       <c r="C107" t="n">
-        <v>2.22799434121438</v>
+        <v>9.8301773710079</v>
       </c>
       <c r="D107" t="n">
-        <v>0.520128035462899</v>
+        <v>1.12561286752642</v>
       </c>
       <c r="E107" t="n">
-        <v>1.54020111893976</v>
+        <v>2.03041120422233</v>
       </c>
       <c r="F107" t="n">
-        <v>0.123511337253013</v>
+        <v>0.0423147587212193</v>
       </c>
     </row>
     <row r="111">
@@ -3355,15 +3279,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
@@ -3373,72 +3297,72 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3381,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -3532,7 +3456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B8" t="n">
         <v>-2.08110235158591</v>
@@ -3552,7 +3476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B9" t="n">
         <v>-0.10952485832719</v>
@@ -3572,7 +3496,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" t="n">
         <v>1.00985683956752</v>
@@ -3605,10 +3529,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35">
@@ -3663,7 +3587,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n">
         <v>-1.58055129725913</v>
@@ -3683,7 +3607,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B41" t="n">
         <v>-0.0443375267086615</v>
@@ -3703,7 +3627,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B42" t="n">
         <v>1.09587300031392</v>
@@ -3736,15 +3660,15 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -3754,72 +3678,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -3864,7 +3788,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B73" t="n">
         <v>-0.852380236612575</v>
@@ -3884,7 +3808,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B74" t="n">
         <v>-0.117938163857455</v>
@@ -3904,7 +3828,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B75" t="n">
         <v>1.24295334801291</v>
@@ -3937,15 +3861,15 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -3955,72 +3879,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104">
@@ -4045,7 +3969,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B105" t="n">
         <v>-0.555239662444661</v>
@@ -4065,7 +3989,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B106" t="n">
         <v>-0.0615601117902014</v>
@@ -4085,7 +4009,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B107" t="n">
         <v>1.27422450041655</v>
@@ -4118,15 +4042,15 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
@@ -4136,62 +4060,62 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134">
@@ -4201,7 +4125,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4220,7 +4144,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
@@ -4295,7 +4219,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B8" t="n">
         <v>0.89272693230814</v>
@@ -4315,7 +4239,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
         <v>0.553529606725665</v>
@@ -4335,7 +4259,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B10" t="n">
         <v>1.69940368171072</v>
@@ -4371,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -4426,7 +4350,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n">
         <v>0.746950831680221</v>
@@ -4446,7 +4370,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="B41" t="n">
         <v>0.578511837771225</v>
@@ -4466,7 +4390,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B42" t="n">
         <v>1.50618463437976</v>
@@ -4502,12 +4426,12 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -4517,72 +4441,72 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -4627,7 +4551,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B73" t="n">
         <v>-0.309385425154711</v>
@@ -4647,7 +4571,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="B74" t="n">
         <v>0.475237644501956</v>
@@ -4667,7 +4591,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B75" t="n">
         <v>1.20766629044834</v>
@@ -4703,12 +4627,12 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -4718,72 +4642,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104">
@@ -4808,7 +4732,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B105" t="n">
         <v>-0.143419997594375</v>
@@ -4828,7 +4752,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="B106" t="n">
         <v>0.506362578524799</v>
@@ -4848,7 +4772,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B107" t="n">
         <v>1.05816175537001</v>
@@ -4884,12 +4808,12 @@
         <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
@@ -4899,62 +4823,62 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134">
@@ -4964,7 +4888,1533 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>350</v>
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.043628905770527</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.04459463991049</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0132846188297072</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.28416692490743</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00102284320809838</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.547175495633691</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.72836434444031</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.301759768246853</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.8132817996668</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0697883689626886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.08110235158591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.124792571059439</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.894734249150305</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.32594466296809</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0200215029605266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.10952485832719</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.896259884563733</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.340679989137419</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.321488968590436</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.74783987073381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.00985683956752</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.74520798172226</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.541441088672583</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.86512782405066</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0621634893284628</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.443193949926545</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.55767441588503</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.250235031252719</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.77111073420792</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0765422893500936</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.58055129725913</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.205861575992911</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.788971121639811</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-2.00330690681566</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0451443566054181</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0443375267086615</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.956631014457453</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.341003405704704</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.130020773889444</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.896549991017476</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.09587300031392</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.99179338021811</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.535967257426139</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.04466408186315</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0408879870415735</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.042621026112739</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.04354234460488</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0131088819882566</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.2513090094884</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00114874928352161</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.852380236612575</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.426398793084152</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.529442505872254</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.6099580731779</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.10740700963007</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.117938163857455</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.888751007849498</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.339384524673498</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.347506015399249</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.728211200131387</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.24295334801291</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.46583417915651</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.529574762455675</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.34707813916443</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0189212862198333</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.555239662444661</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.573934694120395</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.522482850268883</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.06269452128222</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.287920506233645</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.0615601117902014</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.940296421139354</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.338489312033468</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.18186722475927</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.855686926357029</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.27422450041655</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.57592720448545</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.530286710480095</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.40289729166122</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0162657551814411</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0447691882289868</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.04578645222678</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0148254054420495</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0197614766074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00252973825197627</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.59933993143273</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.549174008986686</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.315463250571928</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.89987242680769</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0574498632990314</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.89272693230814</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.44177914725261</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.754260094663486</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.18357969435786</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.236579482302619</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.553529606725665</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.73938152863047</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.340545434589903</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.62542072364659</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.104072943133282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.69940368171072</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.47068414984506</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.809621222394642</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.09901079011286</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0358159495731045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.437717883051477</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.645507865881103</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.307557136930857</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1.42320834242218</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.154675767944879</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.746950831680221</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.11055475856107</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.742778358756337</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.00561738622928</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.314599657184198</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.578511837771225</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.78338249254191</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.341446487084628</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.69429723149514</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0902088163970732</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.50618463437976</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.50949256725042</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.829337370796948</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.81613018708225</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0693504040516615</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0399605981545975</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.04076976513509</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.014501808851743</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.75555956937017</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00585918342364508</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.309385425154711</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.733897852814598</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.418807937030263</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.738728657695794</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.460071780372533</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.475237644501956</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.60839637862871</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.337618003357806</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.40761937981815</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.159243805741475</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.20766629044834</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.34566771815897</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.770600897683322</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.56717477760405</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.117073844281427</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.143419997594375</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.86639011070777</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.410413678277556</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.349452284817327</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.726749786700216</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.506362578524799</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.65924483224223</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.337399109938358</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.50078220009919</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.133411904025015</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.05816175537001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.88107000704058</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.768806432975796</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.37636953852508</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.168707253822085</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
